--- a/data/trans_orig/P6605-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6605-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>43725</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31575</v>
+        <v>31993</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57390</v>
+        <v>58196</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1770224555816577</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1278344753646774</v>
+        <v>0.1295254460799685</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2323446557163985</v>
+        <v>0.2356089340604544</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -765,19 +765,19 @@
         <v>47076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35564</v>
+        <v>35491</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60737</v>
+        <v>61701</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2170264427721263</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1639568200863723</v>
+        <v>0.1636193840531118</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2800057429878023</v>
+        <v>0.2844500970310928</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -786,19 +786,19 @@
         <v>90801</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73906</v>
+        <v>75337</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>109343</v>
+        <v>109858</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1957271394777446</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.15930895825852</v>
+        <v>0.1623946955461172</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2356962199277057</v>
+        <v>0.2368077996477858</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>44248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32855</v>
+        <v>32804</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57215</v>
+        <v>56093</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1791402245245085</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1330139668191762</v>
+        <v>0.1328075480040431</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2316360506509961</v>
+        <v>0.2270970413457501</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -836,19 +836,19 @@
         <v>37108</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26692</v>
+        <v>26714</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48892</v>
+        <v>49084</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1710747690275131</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1230559773991021</v>
+        <v>0.1231575339388015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2253997171107197</v>
+        <v>0.2262822163323325</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -857,19 +857,19 @@
         <v>81356</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>66801</v>
+        <v>66212</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>100520</v>
+        <v>99104</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1753690555450024</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1439949199461472</v>
+        <v>0.1427245733875635</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2166778172157699</v>
+        <v>0.2136257513354762</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>79851</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>66675</v>
+        <v>65271</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>95072</v>
+        <v>95266</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3232826171046636</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2699374137286893</v>
+        <v>0.2642538577106047</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3849045779508276</v>
+        <v>0.3856890435972772</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>76</v>
@@ -907,19 +907,19 @@
         <v>82839</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68322</v>
+        <v>67324</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>97893</v>
+        <v>98349</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3818995914061182</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3149734004723432</v>
+        <v>0.3103751584140267</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4513002310947051</v>
+        <v>0.4534012673046203</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>152</v>
@@ -928,19 +928,19 @@
         <v>162690</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>142892</v>
+        <v>142941</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>186315</v>
+        <v>183476</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3506901845062197</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3080133408571472</v>
+        <v>0.3081198920732698</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4016151186533258</v>
+        <v>0.3954954820089708</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>79178</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63718</v>
+        <v>64877</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>94476</v>
+        <v>96061</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3205547027891702</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2579665852256324</v>
+        <v>0.2626590615684743</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3824908421124982</v>
+        <v>0.3889070419670965</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -978,19 +978,19 @@
         <v>49890</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37155</v>
+        <v>37920</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63462</v>
+        <v>64740</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2299991967942423</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1712882072000835</v>
+        <v>0.1748154495131872</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2925685721609139</v>
+        <v>0.2984589491277415</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>118</v>
@@ -999,19 +999,19 @@
         <v>129067</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>110066</v>
+        <v>110294</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>150556</v>
+        <v>151543</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2782136204710332</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2372545982636511</v>
+        <v>0.2377462959353358</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3245338006200069</v>
+        <v>0.3266612636064192</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>136195</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>114953</v>
+        <v>117013</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>158125</v>
+        <v>156920</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2126945766852473</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1795209548462816</v>
+        <v>0.1827388388586285</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.246942476443642</v>
+        <v>0.2450601384675246</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>89</v>
@@ -1124,19 +1124,19 @@
         <v>95144</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>80553</v>
+        <v>78489</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>112727</v>
+        <v>111414</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3308254016721259</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2800913632345789</v>
+        <v>0.2729138762606687</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3919623947847798</v>
+        <v>0.3873983681737397</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>220</v>
@@ -1145,19 +1145,19 @@
         <v>231339</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>206654</v>
+        <v>204051</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>260439</v>
+        <v>256397</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2493072866379228</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2227050474666477</v>
+        <v>0.2199000847861899</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2806675650213724</v>
+        <v>0.2763122014827547</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>136527</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114693</v>
+        <v>116064</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156432</v>
+        <v>159509</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2132135064814716</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.179114801243795</v>
+        <v>0.1812556328758896</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2442986285578732</v>
+        <v>0.2491037896904816</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -1195,19 +1195,19 @@
         <v>71080</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56391</v>
+        <v>57065</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88175</v>
+        <v>87653</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.247150975473596</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1960771840741647</v>
+        <v>0.1984195092848412</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3065935754338661</v>
+        <v>0.3047774871630889</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>193</v>
@@ -1216,19 +1216,19 @@
         <v>207607</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>181321</v>
+        <v>184601</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>233207</v>
+        <v>236119</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2237318678733825</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1954043530931736</v>
+        <v>0.198939213676446</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2513205460540984</v>
+        <v>0.2544585166292007</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>199586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>177223</v>
+        <v>176729</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>221854</v>
+        <v>223563</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.311692458461482</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2767670637901399</v>
+        <v>0.2759965137927839</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3464677607751374</v>
+        <v>0.349136712078654</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>61</v>
@@ -1266,19 +1266,19 @@
         <v>63414</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50317</v>
+        <v>51154</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>77774</v>
+        <v>78991</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2204970715069875</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1749580676389798</v>
+        <v>0.1778681852975706</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2704285033788427</v>
+        <v>0.2746611422185591</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>257</v>
@@ -1287,19 +1287,19 @@
         <v>263000</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>236906</v>
+        <v>234130</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>290461</v>
+        <v>291506</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2834279453510573</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2553069057213843</v>
+        <v>0.2523158828282708</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3130216399649133</v>
+        <v>0.314147937777819</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>168023</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>146658</v>
+        <v>145372</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>192162</v>
+        <v>192154</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2623994583717992</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2290348890751649</v>
+        <v>0.2270256434786915</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3000986619367523</v>
+        <v>0.300085655718749</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>57</v>
@@ -1337,19 +1337,19 @@
         <v>57958</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>45728</v>
+        <v>44943</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>72695</v>
+        <v>72240</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2015265513472906</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1590011591590703</v>
+        <v>0.1562728216263287</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.25276780834019</v>
+        <v>0.2511843109181919</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>215</v>
@@ -1358,19 +1358,19 @@
         <v>225981</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>198803</v>
+        <v>198481</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>251847</v>
+        <v>254654</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2435329001376374</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.214244656331194</v>
+        <v>0.2138973544082636</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2714085437360038</v>
+        <v>0.2744332097638047</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>228632</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>206357</v>
+        <v>202769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>253989</v>
+        <v>254013</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3235349902031033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2920134899738825</v>
+        <v>0.2869366014785863</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3594163644481836</v>
+        <v>0.3594503105432168</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>109</v>
@@ -1483,19 +1483,19 @@
         <v>109318</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>91072</v>
+        <v>91590</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126235</v>
+        <v>126253</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3074973458378205</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2561716772499845</v>
+        <v>0.2576311520343824</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3550804715304324</v>
+        <v>0.3551314554667622</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>328</v>
@@ -1504,19 +1504,19 @@
         <v>337951</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>306213</v>
+        <v>308933</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>367113</v>
+        <v>369319</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3181672168353738</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2882871355307453</v>
+        <v>0.290848182966792</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3456224368398849</v>
+        <v>0.3476990606259067</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>180544</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>159111</v>
+        <v>157225</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>204621</v>
+        <v>207324</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2554855264152824</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2251562848355632</v>
+        <v>0.2224875442429897</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2895571168676687</v>
+        <v>0.2933822327464166</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>93</v>
@@ -1554,19 +1554,19 @@
         <v>97107</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>80519</v>
+        <v>80327</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>114118</v>
+        <v>115244</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2731476185864432</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2264882119771952</v>
+        <v>0.2259493363918456</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3209973215279643</v>
+        <v>0.3241652504512396</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>269</v>
@@ -1575,19 +1575,19 @@
         <v>277650</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>251201</v>
+        <v>250036</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>309356</v>
+        <v>306522</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2613969998097149</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2364962798580014</v>
+        <v>0.2353990385721562</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2912464789843915</v>
+        <v>0.2885780381228011</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>157102</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>135518</v>
+        <v>134573</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>181721</v>
+        <v>179907</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2223136103882729</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1917692133476373</v>
+        <v>0.19043200189745</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2571505408784466</v>
+        <v>0.2545838927691136</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>91</v>
@@ -1625,19 +1625,19 @@
         <v>95973</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>80225</v>
+        <v>79573</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113758</v>
+        <v>113644</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2699577312210797</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2256626913006104</v>
+        <v>0.2238275958906228</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3199857021004006</v>
+        <v>0.3196646545905715</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>240</v>
@@ -1646,19 +1646,19 @@
         <v>253075</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>228529</v>
+        <v>224710</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>280440</v>
+        <v>281071</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2382600197929385</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2151514339546464</v>
+        <v>0.2115560623843686</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.264022921261341</v>
+        <v>0.2646173564903604</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>140391</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>120759</v>
+        <v>121141</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>161761</v>
+        <v>163259</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1986658729933414</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1708850917111693</v>
+        <v>0.1714248821417622</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2289057080703654</v>
+        <v>0.2310253112893978</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -1696,19 +1696,19 @@
         <v>53112</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40498</v>
+        <v>40724</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66980</v>
+        <v>67361</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1493973043546565</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1139141185917733</v>
+        <v>0.1145508506702532</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.188404016069226</v>
+        <v>0.1894770559646751</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>191</v>
@@ -1717,19 +1717,19 @@
         <v>193503</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>167572</v>
+        <v>168838</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>218634</v>
+        <v>218535</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1821757635619728</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1577629310622496</v>
+        <v>0.1589542766573361</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2058354466568923</v>
+        <v>0.2057417054316944</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>107648</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>92070</v>
+        <v>90978</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>126783</v>
+        <v>127085</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3578723065321832</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3060821659497433</v>
+        <v>0.3024527284552792</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4214844479069803</v>
+        <v>0.4224871227420009</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>62</v>
@@ -1842,19 +1842,19 @@
         <v>62433</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50914</v>
+        <v>50959</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76452</v>
+        <v>74687</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.393264055279837</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3207066191913897</v>
+        <v>0.3209914328237031</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4815713099261055</v>
+        <v>0.4704559412722785</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>167</v>
@@ -1863,19 +1863,19 @@
         <v>170081</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>149490</v>
+        <v>150377</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>190778</v>
+        <v>192827</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3700984671066571</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3252916860498773</v>
+        <v>0.327222546897949</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4151348848216121</v>
+        <v>0.4195948270983292</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>75830</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>60593</v>
+        <v>60847</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91020</v>
+        <v>91262</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2520932437367687</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2014377459310145</v>
+        <v>0.202283981958563</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3025922472305855</v>
+        <v>0.3033952629317996</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -1913,19 +1913,19 @@
         <v>40650</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30194</v>
+        <v>30669</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51273</v>
+        <v>52599</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2560565707479165</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1901911843101043</v>
+        <v>0.1931819835733431</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3229716502747235</v>
+        <v>0.3313228868687146</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>110</v>
@@ -1934,19 +1934,19 @@
         <v>116480</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>97154</v>
+        <v>95712</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>136181</v>
+        <v>136884</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2534623841201089</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2114092511199281</v>
+        <v>0.20827155551816</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2963313393076406</v>
+        <v>0.2978607760989488</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>63675</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>50579</v>
+        <v>51612</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>77412</v>
+        <v>80433</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2116838934665868</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1681474294167428</v>
+        <v>0.1715820876136976</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2573515925566313</v>
+        <v>0.267395268263194</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>28</v>
@@ -1984,19 +1984,19 @@
         <v>28756</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21186</v>
+        <v>19522</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>39458</v>
+        <v>38622</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.181132095733592</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1334512642471063</v>
+        <v>0.1229712745652473</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2485487518729659</v>
+        <v>0.2432827638593521</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>90</v>
@@ -2005,19 +2005,19 @@
         <v>92430</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>75192</v>
+        <v>75483</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>109894</v>
+        <v>110423</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2011297050430153</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.163618884713302</v>
+        <v>0.1642527070238596</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2391304654468366</v>
+        <v>0.2402822543278596</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>53648</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40640</v>
+        <v>41051</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69088</v>
+        <v>68483</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1783505562644612</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.135107545590217</v>
+        <v>0.1364721884800172</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.229681311897738</v>
+        <v>0.2276675487839085</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -2055,19 +2055,19 @@
         <v>26916</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18445</v>
+        <v>17738</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37010</v>
+        <v>36813</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1695472782386545</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1161867413120842</v>
+        <v>0.1117328669512804</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2331237741651123</v>
+        <v>0.231887125418918</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>76</v>
@@ -2076,19 +2076,19 @@
         <v>80565</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66134</v>
+        <v>65215</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>98478</v>
+        <v>98465</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1753094437302188</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1439082976312497</v>
+        <v>0.1419088168517321</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2142888037856319</v>
+        <v>0.2142619204213948</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>516200</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>475550</v>
+        <v>473906</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>553236</v>
+        <v>554190</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2724295980289316</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2509761969901767</v>
+        <v>0.250108321369273</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2919752144640013</v>
+        <v>0.2924788450971665</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>304</v>
@@ -2201,19 +2201,19 @@
         <v>313970</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>283676</v>
+        <v>287529</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>345773</v>
+        <v>346573</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3081850557546899</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2784492347795374</v>
+        <v>0.2822310986701601</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3394014727479603</v>
+        <v>0.3401869137298295</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>799</v>
@@ -2222,19 +2222,19 @@
         <v>830171</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>785993</v>
+        <v>780063</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>880757</v>
+        <v>881915</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2849319931329902</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2697692556251107</v>
+        <v>0.2677340254338136</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3022943050029925</v>
+        <v>0.3026917579803826</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>437149</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>402443</v>
+        <v>398836</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>478030</v>
+        <v>475130</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2307093958077149</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2123930666073166</v>
+        <v>0.2104892000349302</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.252284926025647</v>
+        <v>0.2507543979273588</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>233</v>
@@ -2272,19 +2272,19 @@
         <v>245944</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>218943</v>
+        <v>221227</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>273833</v>
+        <v>273317</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2414126719541247</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.214908985957961</v>
+        <v>0.217150856349955</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2687872878838145</v>
+        <v>0.2682812383680458</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>650</v>
@@ -2293,19 +2293,19 @@
         <v>683094</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>632875</v>
+        <v>633780</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>729560</v>
+        <v>725032</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2344519457791521</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.21721590547271</v>
+        <v>0.2175264819628583</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2504003099228993</v>
+        <v>0.2488459253764191</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>500215</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>465483</v>
+        <v>460231</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>545637</v>
+        <v>538496</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2639929287759624</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2456631195640762</v>
+        <v>0.2428914137630288</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2879648906535785</v>
+        <v>0.2841964350458624</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>256</v>
@@ -2343,19 +2343,19 @@
         <v>270981</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>241077</v>
+        <v>241850</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>299794</v>
+        <v>300357</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2659877209048306</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2366349318513336</v>
+        <v>0.2373934605104377</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.294269539632605</v>
+        <v>0.2948223569843099</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>739</v>
@@ -2364,19 +2364,19 @@
         <v>771196</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>722825</v>
+        <v>722951</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>817965</v>
+        <v>822065</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.264690435700272</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2480885494319256</v>
+        <v>0.2481319749791415</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2807427709119292</v>
+        <v>0.2821499240746368</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>441239</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>404773</v>
+        <v>403343</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>479213</v>
+        <v>477747</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2328680773873911</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2136225661175711</v>
+        <v>0.2128679864890996</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2529090679018358</v>
+        <v>0.2521352506701722</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>181</v>
@@ -2414,19 +2414,19 @@
         <v>187876</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>161904</v>
+        <v>164314</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>212952</v>
+        <v>213191</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1844145513863548</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1589204859079609</v>
+        <v>0.161286668070755</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.209028011830848</v>
+        <v>0.2092624122848652</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>600</v>
@@ -2435,19 +2435,19 @@
         <v>629116</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>586244</v>
+        <v>583060</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>672596</v>
+        <v>675220</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2159256253875856</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2012109965214646</v>
+        <v>0.2001182706343057</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2308488381635299</v>
+        <v>0.2317496378835063</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>46232</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34685</v>
+        <v>35178</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60261</v>
+        <v>61039</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1661719746720271</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.124669904042961</v>
+        <v>0.126443100364604</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2165976579408567</v>
+        <v>0.2193942378433082</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -2800,19 +2800,19 @@
         <v>49337</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37101</v>
+        <v>37694</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63493</v>
+        <v>63024</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2209133028585555</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1661220994388767</v>
+        <v>0.1687800250168884</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2842979343789358</v>
+        <v>0.2821943880827601</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -2821,19 +2821,19 @@
         <v>95569</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78268</v>
+        <v>78776</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114530</v>
+        <v>114560</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1905476662428985</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1560515919462983</v>
+        <v>0.1570653453021739</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2283531051004964</v>
+        <v>0.2284114091951062</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>74683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>61426</v>
+        <v>60885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90578</v>
+        <v>90825</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2684376621069018</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2207851859391449</v>
+        <v>0.2188426450912036</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3255673349321179</v>
+        <v>0.3264574985099329</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -2871,19 +2871,19 @@
         <v>57401</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44391</v>
+        <v>44826</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71535</v>
+        <v>71882</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2570164309768099</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.198763413744105</v>
+        <v>0.200714648764085</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3203060088862452</v>
+        <v>0.3218574328754938</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>124</v>
@@ -2892,19 +2892,19 @@
         <v>132084</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>111410</v>
+        <v>112231</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>152631</v>
+        <v>154634</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2633519176317565</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2221314081201034</v>
+        <v>0.2237679022196904</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3043197435175972</v>
+        <v>0.3083134598400332</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>71629</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56936</v>
+        <v>58265</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86893</v>
+        <v>87214</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2574577953673556</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2046472116381244</v>
+        <v>0.2094233145999403</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3123239096498712</v>
+        <v>0.3134754081986368</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>46</v>
@@ -2942,19 +2942,19 @@
         <v>52277</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39737</v>
+        <v>38785</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>66812</v>
+        <v>66512</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2340750545834175</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1779242317650965</v>
+        <v>0.1736644234412763</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2991561706890312</v>
+        <v>0.297816045824339</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>114</v>
@@ -2963,19 +2963,19 @@
         <v>123906</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>104466</v>
+        <v>102594</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>146831</v>
+        <v>144366</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.247045726528091</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2082869568591342</v>
+        <v>0.204553673323939</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2927556014826881</v>
+        <v>0.2878397454187477</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>85671</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68729</v>
+        <v>69857</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101154</v>
+        <v>103233</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3079325678537155</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2470345262340992</v>
+        <v>0.2510896800470074</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3635813654994497</v>
+        <v>0.3710537138683301</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -3013,19 +3013,19 @@
         <v>64319</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52194</v>
+        <v>51633</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80802</v>
+        <v>79108</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.287995211581217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2337058908434883</v>
+        <v>0.2311901742945047</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3617971338589771</v>
+        <v>0.354211849362351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>136</v>
@@ -3034,19 +3034,19 @@
         <v>149991</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>129065</v>
+        <v>129266</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>171008</v>
+        <v>173148</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2990546895972541</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2573333438009064</v>
+        <v>0.2577334106270986</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.34095994826994</v>
+        <v>0.3452260750305982</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>69514</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>54548</v>
+        <v>54477</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>85490</v>
+        <v>85429</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1828493561064503</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1434823347081968</v>
+        <v>0.1432975350005562</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2248743448223151</v>
+        <v>0.2247114190810507</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>59</v>
@@ -3159,19 +3159,19 @@
         <v>66114</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51870</v>
+        <v>52652</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>80890</v>
+        <v>82456</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2599013555478771</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2039035349229758</v>
+        <v>0.2069775349495905</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3179842200095812</v>
+        <v>0.3241401612126872</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>125</v>
@@ -3180,19 +3180,19 @@
         <v>135628</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>115050</v>
+        <v>114727</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>158550</v>
+        <v>156349</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.213738402888302</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1813088320816671</v>
+        <v>0.180800347626535</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2498612611849443</v>
+        <v>0.24639277626518</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>84175</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69304</v>
+        <v>67690</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101888</v>
+        <v>100960</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2214149597512361</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1822964718578741</v>
+        <v>0.1780523320520644</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2680061667492157</v>
+        <v>0.2655648695771605</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -3230,19 +3230,19 @@
         <v>58003</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44700</v>
+        <v>45255</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74801</v>
+        <v>72630</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2280147950645808</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.175717809353807</v>
+        <v>0.1778997801974354</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2940473354893994</v>
+        <v>0.2855154149127497</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>139</v>
@@ -3251,19 +3251,19 @@
         <v>142178</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121097</v>
+        <v>120742</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162798</v>
+        <v>164864</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2240607395262489</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1908376212427896</v>
+        <v>0.1902792829132322</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2565560755336693</v>
+        <v>0.2598106913455834</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>119085</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>102939</v>
+        <v>102561</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138682</v>
+        <v>137477</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3132422259300366</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2707715277397582</v>
+        <v>0.2697756935077955</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3647901002953839</v>
+        <v>0.3616205883208133</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -3301,19 +3301,19 @@
         <v>70396</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>56025</v>
+        <v>56773</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>87268</v>
+        <v>86797</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2767319450404593</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2202386337643348</v>
+        <v>0.2231772842579474</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3430582131774923</v>
+        <v>0.3412046325598156</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>177</v>
@@ -3322,19 +3322,19 @@
         <v>189481</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>167173</v>
+        <v>165862</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>214075</v>
+        <v>213441</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2986057754473466</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2634492858266972</v>
+        <v>0.2613846757912499</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3373638376355523</v>
+        <v>0.3363648252293387</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>107396</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>90252</v>
+        <v>90695</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>126400</v>
+        <v>125664</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2824934582122771</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2374000037383711</v>
+        <v>0.2385631680798206</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3324830001572827</v>
+        <v>0.3305469588242895</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>56</v>
@@ -3372,19 +3372,19 @@
         <v>59870</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>46484</v>
+        <v>46114</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75909</v>
+        <v>74041</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2353519043470828</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1827305865317095</v>
+        <v>0.1812779311401568</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2984030774342682</v>
+        <v>0.2910608246236955</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>158</v>
@@ -3393,19 +3393,19 @@
         <v>167265</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>144975</v>
+        <v>145686</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>190073</v>
+        <v>190840</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2635950821381026</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2284675978952327</v>
+        <v>0.2295877058609819</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2995383961061694</v>
+        <v>0.3007472038408555</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>109235</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91593</v>
+        <v>91919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>129673</v>
+        <v>128863</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2412301882544508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2022702247347617</v>
+        <v>0.20299087515601</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2863657225856481</v>
+        <v>0.2845774298989441</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>77</v>
@@ -3518,19 +3518,19 @@
         <v>84329</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70424</v>
+        <v>68231</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>102309</v>
+        <v>98719</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3026196371105064</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2527228421612991</v>
+        <v>0.244852668359311</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3671422003774156</v>
+        <v>0.354259654763063</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>179</v>
@@ -3539,19 +3539,19 @@
         <v>193563</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>170644</v>
+        <v>170587</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>219036</v>
+        <v>219202</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2646167613671713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.233284799979555</v>
+        <v>0.2332070631607336</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.299439903751846</v>
+        <v>0.2996675292221387</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>124654</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>105373</v>
+        <v>105400</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>144357</v>
+        <v>145803</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.275281318786343</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2327030942330993</v>
+        <v>0.232761626287315</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3187933563584717</v>
+        <v>0.3219857171946508</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>73</v>
@@ -3589,19 +3589,19 @@
         <v>74676</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>61042</v>
+        <v>60846</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>90985</v>
+        <v>89568</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2679792878266827</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2190526371634976</v>
+        <v>0.2183499611325082</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3265053303232202</v>
+        <v>0.3214224925111258</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>190</v>
@@ -3610,19 +3610,19 @@
         <v>199329</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>174540</v>
+        <v>172799</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>221895</v>
+        <v>222932</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2724995788604828</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2386100543577722</v>
+        <v>0.2362310136495002</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3033480747693539</v>
+        <v>0.3047662908532622</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>156144</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>135024</v>
+        <v>135511</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>177622</v>
+        <v>179016</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3448225360088751</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2981838047584254</v>
+        <v>0.2992571941959362</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3922541880650963</v>
+        <v>0.3953323516684577</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -3660,19 +3660,19 @@
         <v>75077</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61029</v>
+        <v>62444</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91657</v>
+        <v>93353</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2694190088567111</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2190078306724372</v>
+        <v>0.2240868680984518</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3289168135736043</v>
+        <v>0.3350050682331522</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>217</v>
@@ -3681,19 +3681,19 @@
         <v>231220</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>207944</v>
+        <v>206746</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>257560</v>
+        <v>258167</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3160972398291369</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2842769802080991</v>
+        <v>0.2826384401233422</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3521060274226195</v>
+        <v>0.3529351218538425</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>62791</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49012</v>
+        <v>49442</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80167</v>
+        <v>78821</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1386659569503311</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1082369136727354</v>
+        <v>0.1091859062960139</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1770371852035287</v>
+        <v>0.1740662242943669</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -3731,19 +3731,19 @@
         <v>44581</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33420</v>
+        <v>34264</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58333</v>
+        <v>58208</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1599820662060998</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.119930317564737</v>
+        <v>0.1229579154963228</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2093324998065082</v>
+        <v>0.2088846424146219</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>104</v>
@@ -3752,19 +3752,19 @@
         <v>107372</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>88430</v>
+        <v>89421</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>127185</v>
+        <v>127679</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.146786419943209</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1208908913535801</v>
+        <v>0.1222451653955141</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1738724662317113</v>
+        <v>0.174547375960015</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>99046</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>82363</v>
+        <v>82580</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>118233</v>
+        <v>117380</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3352511779977271</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2787814161137021</v>
+        <v>0.2795173901475599</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4001930420177515</v>
+        <v>0.3973069256145211</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -3877,19 +3877,19 @@
         <v>50730</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38913</v>
+        <v>38436</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63981</v>
+        <v>64895</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2719568780558139</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2086058662303786</v>
+        <v>0.2060493591739884</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3429938006606182</v>
+        <v>0.347897630835816</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>130</v>
@@ -3898,19 +3898,19 @@
         <v>149776</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>129498</v>
+        <v>126701</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>174229</v>
+        <v>171368</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3107547867390841</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2686809618236795</v>
+        <v>0.2628791945043846</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.361489337916312</v>
+        <v>0.3555535863043258</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>65778</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50616</v>
+        <v>52325</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>83459</v>
+        <v>82988</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2226455724550442</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1713262751580068</v>
+        <v>0.1771092894050395</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2824913442470503</v>
+        <v>0.2808974550816631</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -3948,19 +3948,19 @@
         <v>62199</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47094</v>
+        <v>49483</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>77556</v>
+        <v>76565</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3334449240936669</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2524636867962018</v>
+        <v>0.2652725125989644</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4157719269815753</v>
+        <v>0.4104564937311429</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>114</v>
@@ -3969,19 +3969,19 @@
         <v>127978</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>107937</v>
+        <v>108306</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>150091</v>
+        <v>149215</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.26552754241813</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2239471037544653</v>
+        <v>0.2247133436464877</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3114085431787385</v>
+        <v>0.3095913988316522</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>73286</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>58797</v>
+        <v>59115</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>89152</v>
+        <v>89767</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2480575622761327</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1990166358094716</v>
+        <v>0.2000905923572293</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.301760328255512</v>
+        <v>0.303842371637392</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>34</v>
@@ -4019,19 +4019,19 @@
         <v>35002</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24682</v>
+        <v>25374</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47304</v>
+        <v>46176</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1876427914834686</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1323151147721135</v>
+        <v>0.1360282643656497</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2535936894336747</v>
+        <v>0.2475473179265086</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>103</v>
@@ -4040,19 +4040,19 @@
         <v>108288</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>91418</v>
+        <v>90283</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>128219</v>
+        <v>129308</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2246756169114392</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1896736071912063</v>
+        <v>0.1873194084454886</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2660290436125611</v>
+        <v>0.2682872433664198</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>57329</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44119</v>
+        <v>43644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71773</v>
+        <v>73713</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1940456872710961</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1493333668651491</v>
+        <v>0.1477254020685211</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.242935824669402</v>
+        <v>0.2495032638120247</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -4090,19 +4090,19 @@
         <v>38605</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27455</v>
+        <v>27704</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50749</v>
+        <v>51180</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2069554063670505</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1471836583168624</v>
+        <v>0.1485188466615063</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2720612667081511</v>
+        <v>0.2743725141411624</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>90</v>
@@ -4111,19 +4111,19 @@
         <v>95933</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>79717</v>
+        <v>79074</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>115761</v>
+        <v>115042</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1990420539313467</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1653962560774226</v>
+        <v>0.1640622412147866</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2401795154447668</v>
+        <v>0.238689132941119</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>324026</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>291418</v>
+        <v>291971</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>358161</v>
+        <v>362176</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2303536395293039</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2071719619292521</v>
+        <v>0.2075656914092049</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2546207993409332</v>
+        <v>0.2574751251061295</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>227</v>
@@ -4236,19 +4236,19 @@
         <v>250510</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>224463</v>
+        <v>221271</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>281511</v>
+        <v>277623</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2656764293972958</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2380522179787328</v>
+        <v>0.2346670966859865</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2985542446095343</v>
+        <v>0.2944307540927291</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>525</v>
@@ -4257,19 +4257,19 @@
         <v>574537</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>532892</v>
+        <v>529475</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>623195</v>
+        <v>619127</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2445292183964785</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2268048720850624</v>
+        <v>0.2253504990569818</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2652385879963237</v>
+        <v>0.263507407364193</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>349290</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>317911</v>
+        <v>319066</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>387885</v>
+        <v>384466</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2483143205122391</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2260064999189513</v>
+        <v>0.226827476741872</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2757520081099047</v>
+        <v>0.2733209801648828</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>236</v>
@@ -4307,19 +4307,19 @@
         <v>252279</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>224918</v>
+        <v>221498</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>282901</v>
+        <v>277247</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2675518851718814</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.238534926648475</v>
+        <v>0.2349073661168595</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3000285086107516</v>
+        <v>0.2940316037897397</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>567</v>
@@ -4328,19 +4328,19 @@
         <v>601569</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>561387</v>
+        <v>559416</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>645503</v>
+        <v>644547</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2560346510994966</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2389325732243558</v>
+        <v>0.2380938972441249</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2747332319074522</v>
+        <v>0.2743262731035159</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>420143</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>387828</v>
+        <v>385220</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>457397</v>
+        <v>458457</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2986842872360596</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2757113918837041</v>
+        <v>0.2738573711303356</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3251685330930391</v>
+        <v>0.325922047971951</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>212</v>
@@ -4378,19 +4378,19 @@
         <v>232752</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>207765</v>
+        <v>207293</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>263020</v>
+        <v>262698</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2468428605287873</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2203431988987769</v>
+        <v>0.2198431774083992</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2789433647673579</v>
+        <v>0.2786023960328359</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>611</v>
@@ -4399,19 +4399,19 @@
         <v>652895</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>604790</v>
+        <v>611601</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>694357</v>
+        <v>700500</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2778795253352533</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2574052291901275</v>
+        <v>0.2603041645837987</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2955262420947125</v>
+        <v>0.298140886429998</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>313187</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>283431</v>
+        <v>279084</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>345841</v>
+        <v>342545</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2226477527223974</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2014940524810351</v>
+        <v>0.1984038344452943</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2458618058489704</v>
+        <v>0.243519219250707</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>195</v>
@@ -4449,19 +4449,19 @@
         <v>207374</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>182193</v>
+        <v>183128</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>236080</v>
+        <v>234854</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2199288249020354</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1932235114930937</v>
+        <v>0.1942143060465564</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2503730431195656</v>
+        <v>0.2490727627182324</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>488</v>
@@ -4470,19 +4470,19 @@
         <v>520561</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>478349</v>
+        <v>480303</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>558235</v>
+        <v>561436</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2215566051687716</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2035908366328641</v>
+        <v>0.2044224828025033</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2375911398451543</v>
+        <v>0.2389535180539178</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>52646</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40511</v>
+        <v>40788</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68163</v>
+        <v>66198</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1812726928543409</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1394874220357906</v>
+        <v>0.1404408850991112</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2346989442028326</v>
+        <v>0.2279322393795733</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -4835,19 +4835,19 @@
         <v>55058</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42444</v>
+        <v>43453</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68826</v>
+        <v>70740</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2000252013917646</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1541990644736409</v>
+        <v>0.1578645925105</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2500469805329928</v>
+        <v>0.2569994511427527</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>103</v>
@@ -4856,19 +4856,19 @@
         <v>107704</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>89031</v>
+        <v>89864</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126868</v>
+        <v>126771</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1903974336399789</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1573869922436729</v>
+        <v>0.1588594284872581</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2242743720147429</v>
+        <v>0.2241040057346393</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>66062</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52755</v>
+        <v>51338</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81775</v>
+        <v>80891</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2274637798238908</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1816460546874555</v>
+        <v>0.1767678453167235</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2815688496070913</v>
+        <v>0.2785250637959222</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>77</v>
@@ -4906,19 +4906,19 @@
         <v>77447</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>63391</v>
+        <v>62242</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>93376</v>
+        <v>94249</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.281366480778498</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.230300848398679</v>
+        <v>0.2261262681548534</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3392372059944449</v>
+        <v>0.3424074763116525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>137</v>
@@ -4927,19 +4927,19 @@
         <v>143509</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>123381</v>
+        <v>123469</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>165773</v>
+        <v>166280</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2536921733678791</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2181102407179025</v>
+        <v>0.2182662837235857</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2930509000314911</v>
+        <v>0.2939471485431547</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>98716</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>81868</v>
+        <v>82674</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>115921</v>
+        <v>115359</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3399000195203164</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2818885883145146</v>
+        <v>0.2846627120268242</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3991392920159366</v>
+        <v>0.3972040675028154</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>65</v>
@@ -4977,19 +4977,19 @@
         <v>65493</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52524</v>
+        <v>52268</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>80929</v>
+        <v>80967</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2379372935335227</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1908199321910082</v>
+        <v>0.189890201954906</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2940184004950129</v>
+        <v>0.2941560337102832</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>156</v>
@@ -4998,19 +4998,19 @@
         <v>164209</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>142356</v>
+        <v>141701</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>185731</v>
+        <v>187218</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2902862069165365</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2516545684020696</v>
+        <v>0.2504969359657169</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3283316596482967</v>
+        <v>0.3309613701970592</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>73003</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58449</v>
+        <v>59625</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87565</v>
+        <v>90013</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2513635078014518</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2012531842324091</v>
+        <v>0.2053028585025455</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3015035789463169</v>
+        <v>0.3099346966280823</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>73</v>
@@ -5048,19 +5048,19 @@
         <v>77256</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62865</v>
+        <v>63417</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93165</v>
+        <v>93491</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2806710242962147</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2283889315587821</v>
+        <v>0.2303935865078516</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3384706638917735</v>
+        <v>0.339654320546458</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>138</v>
@@ -5069,19 +5069,19 @@
         <v>150258</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>131593</v>
+        <v>130228</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173624</v>
+        <v>173010</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2656241860756055</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2326284274966991</v>
+        <v>0.2302146750850538</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3069297632005485</v>
+        <v>0.3058435948359307</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>85325</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>70454</v>
+        <v>68911</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>101578</v>
+        <v>102127</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2199708091826674</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1816336566810432</v>
+        <v>0.1776535975588006</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2618720949221699</v>
+        <v>0.2632862663026803</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>78</v>
@@ -5194,19 +5194,19 @@
         <v>79287</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>66139</v>
+        <v>66782</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>94077</v>
+        <v>95671</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2935977941785419</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2449113463475884</v>
+        <v>0.2472937028880046</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3483646063813037</v>
+        <v>0.3542657403632986</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>159</v>
@@ -5215,19 +5215,19 @@
         <v>164612</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>142081</v>
+        <v>144920</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>188864</v>
+        <v>187904</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.250190889922409</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.215946021166364</v>
+        <v>0.2202609689481798</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2870512789206729</v>
+        <v>0.2855923545919272</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>109508</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93728</v>
+        <v>93695</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128645</v>
+        <v>127996</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2823150883403742</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.241633777102407</v>
+        <v>0.2415486877241939</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3316512609668374</v>
+        <v>0.3299768631046631</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -5265,19 +5265,19 @@
         <v>78606</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63720</v>
+        <v>64004</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94224</v>
+        <v>93609</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2910749730371921</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2359548110183399</v>
+        <v>0.237003732802126</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3489085468263581</v>
+        <v>0.3466320406349856</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -5286,19 +5286,19 @@
         <v>188113</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>165044</v>
+        <v>164494</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>212586</v>
+        <v>210373</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2859105693019197</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2508475401770181</v>
+        <v>0.2500119525274607</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3231067165742011</v>
+        <v>0.3197423587387714</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>118165</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>101107</v>
+        <v>101146</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>136368</v>
+        <v>138674</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3046324324877169</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2606577340006908</v>
+        <v>0.2607563691824542</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3515603500777519</v>
+        <v>0.3575051401042293</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -5336,19 +5336,19 @@
         <v>62266</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48397</v>
+        <v>48889</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75775</v>
+        <v>74728</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2305713181143453</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1792118602446041</v>
+        <v>0.1810365999264124</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2805913528910922</v>
+        <v>0.2767147634642089</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>176</v>
@@ -5357,19 +5357,19 @@
         <v>180431</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>158783</v>
+        <v>157252</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>203441</v>
+        <v>202695</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.274234164024545</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2413315561191089</v>
+        <v>0.2390045216162188</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3092066468649814</v>
+        <v>0.3080729863481367</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>74895</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59851</v>
+        <v>60072</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>92036</v>
+        <v>91649</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1930816699892414</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1542978373431437</v>
+        <v>0.1548667210605629</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2372715139730717</v>
+        <v>0.2362735858959719</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -5407,19 +5407,19 @@
         <v>49894</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>37490</v>
+        <v>38959</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>63342</v>
+        <v>63817</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1847559146699208</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1388235717308104</v>
+        <v>0.1442630256285191</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2345528810869556</v>
+        <v>0.2363120022619064</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>118</v>
@@ -5428,19 +5428,19 @@
         <v>124789</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>104966</v>
+        <v>105177</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>145442</v>
+        <v>146198</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1896643767511264</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1595360534445356</v>
+        <v>0.1598571136173287</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2210544697280653</v>
+        <v>0.2222033726076513</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>166137</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>143663</v>
+        <v>146420</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>188717</v>
+        <v>187962</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3658613727626526</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3163698550402505</v>
+        <v>0.32244097342611</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4155848460079975</v>
+        <v>0.4139234507330767</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>112</v>
@@ -5553,19 +5553,19 @@
         <v>110091</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>95015</v>
+        <v>94676</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126709</v>
+        <v>126270</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3801105605277987</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3280593029011609</v>
+        <v>0.3268883127536166</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4374884000579856</v>
+        <v>0.4359723772853719</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>266</v>
@@ -5574,19 +5574,19 @@
         <v>276228</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>249439</v>
+        <v>250069</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>307781</v>
+        <v>300952</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3714104216837437</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3353907402437641</v>
+        <v>0.3362370911447096</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4138360371542624</v>
+        <v>0.4046535759967827</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>110613</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>94080</v>
+        <v>91660</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>130373</v>
+        <v>130792</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2435867838783732</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2071805475211503</v>
+        <v>0.2018503776309462</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2871032615173704</v>
+        <v>0.2880262561329717</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>62</v>
@@ -5624,19 +5624,19 @@
         <v>61652</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>49752</v>
+        <v>48466</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>77270</v>
+        <v>75890</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2128670144412926</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1717787921644298</v>
+        <v>0.1673382755115967</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2667880317753484</v>
+        <v>0.2620232464257555</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>166</v>
@@ -5645,19 +5645,19 @@
         <v>172265</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>150574</v>
+        <v>149877</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>196190</v>
+        <v>196358</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2316236105199617</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2024584912644772</v>
+        <v>0.2015207233388699</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2637920741680907</v>
+        <v>0.2640179280384672</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>107794</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>89086</v>
+        <v>90713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128074</v>
+        <v>128262</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2373788684415987</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1961820255899166</v>
+        <v>0.1997645439485962</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2820404885240745</v>
+        <v>0.2824530658144165</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -5695,19 +5695,19 @@
         <v>73879</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61024</v>
+        <v>61269</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>89066</v>
+        <v>89330</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2550806263350268</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2106971520426684</v>
+        <v>0.2115431593696006</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3075164531693179</v>
+        <v>0.3084288371576601</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>176</v>
@@ -5716,19 +5716,19 @@
         <v>181672</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>158536</v>
+        <v>159326</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>206989</v>
+        <v>205969</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2442724487746623</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2131642199025898</v>
+        <v>0.2142257554620694</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2783126006942912</v>
+        <v>0.276940740977083</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>69556</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>55084</v>
+        <v>55025</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>86911</v>
+        <v>85788</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1531729749173755</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1213035913521562</v>
+        <v>0.1211729512791542</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1913931908815384</v>
+        <v>0.1889194298014717</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -5766,19 +5766,19 @@
         <v>44007</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33058</v>
+        <v>32560</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57726</v>
+        <v>57434</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1519417986958819</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1141397312118378</v>
+        <v>0.1124203771087511</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1993115526830169</v>
+        <v>0.1983011422912351</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>107</v>
@@ -5787,19 +5787,19 @@
         <v>113562</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>94501</v>
+        <v>95022</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>136371</v>
+        <v>134573</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1526935190216323</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1270636757282925</v>
+        <v>0.1277639849813945</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1833617812367931</v>
+        <v>0.1809432676978394</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>104086</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>86406</v>
+        <v>85980</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>121691</v>
+        <v>119817</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3811120206468988</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3163753305691041</v>
+        <v>0.3148152943458818</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4455740189616636</v>
+        <v>0.4387121219887346</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>87</v>
@@ -5912,19 +5912,19 @@
         <v>92363</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79068</v>
+        <v>77778</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>106382</v>
+        <v>106737</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4759446593776728</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4074322576287009</v>
+        <v>0.4007896675589929</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5481815532727488</v>
+        <v>0.5500146104498347</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>181</v>
@@ -5933,19 +5933,19 @@
         <v>196449</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>176088</v>
+        <v>175816</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>219342</v>
+        <v>221794</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4205052468718988</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3769216027360597</v>
+        <v>0.3763392210832456</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.469508656397362</v>
+        <v>0.4747559800199476</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>61329</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>47622</v>
+        <v>47658</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>75968</v>
+        <v>75624</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.224557525936664</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1743692894893075</v>
+        <v>0.1744996358590122</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2781561449667081</v>
+        <v>0.2768982284570521</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -5983,19 +5983,19 @@
         <v>41978</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31745</v>
+        <v>30793</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55183</v>
+        <v>54785</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2163127900190591</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1635804596958859</v>
+        <v>0.1586753936996834</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2843549406486028</v>
+        <v>0.2823033504474088</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>98</v>
@@ -6004,19 +6004,19 @@
         <v>103307</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>86494</v>
+        <v>86520</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>122937</v>
+        <v>122344</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2211326845369678</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.185142790018143</v>
+        <v>0.1851995717663268</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2631495337126183</v>
+        <v>0.2618800250843197</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>56041</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>42124</v>
+        <v>43059</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>70809</v>
+        <v>70711</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2051949024321688</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.15423610960612</v>
+        <v>0.1576618808605713</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2592698167431142</v>
+        <v>0.2589092942790688</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>26</v>
@@ -6054,19 +6054,19 @@
         <v>25879</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17119</v>
+        <v>18200</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36681</v>
+        <v>36989</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1333523026865815</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08821527573477127</v>
+        <v>0.0937840133452551</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1890174402397262</v>
+        <v>0.1906025945233727</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>77</v>
@@ -6075,19 +6075,19 @@
         <v>81920</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>66993</v>
+        <v>66951</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>100907</v>
+        <v>100153</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1753516773332172</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1434002403715703</v>
+        <v>0.1433104176221021</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2159949441772262</v>
+        <v>0.2143812495831483</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>51655</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38548</v>
+        <v>39365</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65922</v>
+        <v>66172</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1891355509842683</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1411440896880929</v>
+        <v>0.1441357742473295</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2413757532904624</v>
+        <v>0.2422885319125639</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -6125,19 +6125,19 @@
         <v>33843</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23938</v>
+        <v>24730</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46275</v>
+        <v>47079</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1743902479166866</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1233506840745431</v>
+        <v>0.1274307204012647</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2384534550671854</v>
+        <v>0.2425952101978004</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>75</v>
@@ -6146,19 +6146,19 @@
         <v>85498</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70196</v>
+        <v>69494</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>105361</v>
+        <v>106813</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1830103912579162</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1502556247640274</v>
+        <v>0.1487543512111361</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2255277298189367</v>
+        <v>0.2286362486298666</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>408195</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>374280</v>
+        <v>372740</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>444166</v>
+        <v>443409</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2904205789072357</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2662909193819503</v>
+        <v>0.2651956905040237</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3160129900130557</v>
+        <v>0.3154748948880907</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>330</v>
@@ -6271,19 +6271,19 @@
         <v>336799</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>308693</v>
+        <v>308008</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>367865</v>
+        <v>368197</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.327307581456728</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2999942241401788</v>
+        <v>0.2993276791951001</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.357497823279049</v>
+        <v>0.3578208354223314</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>709</v>
@@ -6292,19 +6292,19 @@
         <v>744994</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>702065</v>
+        <v>699200</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>791448</v>
+        <v>796097</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3060115490702739</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2883781197656465</v>
+        <v>0.2872012766985705</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3250929795846217</v>
+        <v>0.3270025173040916</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>347511</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>316115</v>
+        <v>314184</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>382267</v>
+        <v>379369</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2472457335870739</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2249081802622261</v>
+        <v>0.2235343206894082</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.27197378847047</v>
+        <v>0.2699116384879121</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>255</v>
@@ -6342,19 +6342,19 @@
         <v>259683</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>231215</v>
+        <v>234033</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>287848</v>
+        <v>291398</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2523652826504991</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2246992430137036</v>
+        <v>0.2274377127735916</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2797362738947321</v>
+        <v>0.2831860697956315</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>580</v>
@@ -6363,19 +6363,19 @@
         <v>607195</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>566393</v>
+        <v>563986</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>653150</v>
+        <v>653688</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2494096051727084</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2326500281842476</v>
+        <v>0.2316614256872851</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2682861301407898</v>
+        <v>0.2685071527880585</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>380715</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>348086</v>
+        <v>345977</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>418911</v>
+        <v>416744</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2708696292505244</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2476545836736573</v>
+        <v>0.2461541692053749</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2980448201722906</v>
+        <v>0.2965029047325713</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>227</v>
@@ -6413,19 +6413,19 @@
         <v>227517</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>201033</v>
+        <v>199886</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>255927</v>
+        <v>252880</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2211053189153635</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1953673433410513</v>
+        <v>0.1942529696735029</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2487149967564384</v>
+        <v>0.2457533538743318</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>585</v>
@@ -6434,19 +6434,19 @@
         <v>608232</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>567152</v>
+        <v>565841</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>649665</v>
+        <v>654111</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2498358280741166</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.232961839709738</v>
+        <v>0.2324231079095164</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2668547855860171</v>
+        <v>0.2686809618471084</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>269108</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>235635</v>
+        <v>241342</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>301072</v>
+        <v>301122</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.191464058255166</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1676484497842234</v>
+        <v>0.1717086015195277</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2142053694706705</v>
+        <v>0.2142410270127617</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>193</v>
@@ -6484,19 +6484,19 @@
         <v>204999</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>181448</v>
+        <v>178353</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>233495</v>
+        <v>230388</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1992218169774094</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.176334648229022</v>
+        <v>0.1733267014240606</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2269150917880935</v>
+        <v>0.2238951230217499</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>438</v>
@@ -6505,19 +6505,19 @@
         <v>474107</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>433001</v>
+        <v>431132</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>513088</v>
+        <v>514083</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1947430176829011</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1778581548250209</v>
+        <v>0.1770906238443118</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2107544514734411</v>
+        <v>0.2111634447830176</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>17085</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9517</v>
+        <v>8886</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29264</v>
+        <v>27152</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1793210570716785</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09989123274567126</v>
+        <v>0.09326571039953699</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3071501104761883</v>
+        <v>0.2849839639585601</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -6870,19 +6870,19 @@
         <v>14562</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8673</v>
+        <v>8209</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23621</v>
+        <v>22627</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1851833244531644</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1103000340698798</v>
+        <v>0.1043966172582213</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.300395273260567</v>
+        <v>0.2877490998321104</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -6891,19 +6891,19 @@
         <v>31647</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21655</v>
+        <v>20684</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44896</v>
+        <v>44275</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1819717066253218</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.124519199409271</v>
+        <v>0.1189345089259095</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.258158361586812</v>
+        <v>0.2545850351800639</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>3645</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8635</v>
+        <v>8966</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0382610721331967</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0104849409545193</v>
+        <v>0.01040881047101229</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09063515268296102</v>
+        <v>0.09410093762877396</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -6941,19 +6941,19 @@
         <v>19972</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13284</v>
+        <v>13844</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28800</v>
+        <v>28609</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2539806168132344</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1689308857053461</v>
+        <v>0.1760523042540033</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.366257709466617</v>
+        <v>0.3638293210906395</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -6962,19 +6962,19 @@
         <v>23617</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15845</v>
+        <v>15489</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33499</v>
+        <v>33985</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1357995973502689</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.091110649070422</v>
+        <v>0.08906570360751458</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1926250912687763</v>
+        <v>0.1954146645119343</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>39875</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27890</v>
+        <v>28835</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51207</v>
+        <v>51415</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4185195605301877</v>
+        <v>0.4185195605301878</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2927280871281536</v>
+        <v>0.3026443756321539</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5374626781033242</v>
+        <v>0.5396444887020032</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -7012,19 +7012,19 @@
         <v>22903</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16225</v>
+        <v>15978</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>32038</v>
+        <v>31092</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2912589444575042</v>
+        <v>0.2912589444575041</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2063415262734805</v>
+        <v>0.2031976561948862</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4074373213237061</v>
+        <v>0.3953987366027296</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>57</v>
@@ -7033,19 +7033,19 @@
         <v>62778</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49511</v>
+        <v>49974</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>77809</v>
+        <v>78037</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3609781225100182</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2846943981441334</v>
+        <v>0.287355615956223</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4474099848606888</v>
+        <v>0.4487198174438425</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>34671</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24072</v>
+        <v>24069</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47724</v>
+        <v>46684</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3638983102649369</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2526571655132623</v>
+        <v>0.2526192487652157</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5009057563746223</v>
+        <v>0.4899824349701518</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -7083,19 +7083,19 @@
         <v>21198</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14931</v>
+        <v>14728</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29370</v>
+        <v>28790</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2695771142760972</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1898834041226785</v>
+        <v>0.1873016429939771</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3735027420736117</v>
+        <v>0.3661219229048927</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -7104,19 +7104,19 @@
         <v>55869</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43773</v>
+        <v>42862</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71147</v>
+        <v>70293</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3212505735143911</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2517000744428327</v>
+        <v>0.2464580142553286</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4091006955733938</v>
+        <v>0.4041902103492211</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>39369</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>27769</v>
+        <v>26691</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>54110</v>
+        <v>54422</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1694150825989496</v>
+        <v>0.1694150825989495</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1194954632816117</v>
+        <v>0.1148585946994778</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2328475998933293</v>
+        <v>0.2341904291969977</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>33</v>
@@ -7229,19 +7229,19 @@
         <v>26855</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19164</v>
+        <v>19149</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>37296</v>
+        <v>36702</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1636515533751773</v>
+        <v>0.1636515533751772</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1167856694572797</v>
+        <v>0.1166918876026562</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2272748920070375</v>
+        <v>0.2236572395542385</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>64</v>
@@ -7250,19 +7250,19 @@
         <v>66224</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>51750</v>
+        <v>52324</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>83834</v>
+        <v>82194</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1670296401248186</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1305216716408331</v>
+        <v>0.1319709827621234</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2114442828897797</v>
+        <v>0.2073066398980961</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>66219</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51248</v>
+        <v>51969</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82732</v>
+        <v>84539</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2849567200624569</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2205333332313391</v>
+        <v>0.2236341794826718</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3560154265845311</v>
+        <v>0.3637914241237156</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -7300,19 +7300,19 @@
         <v>49825</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40121</v>
+        <v>38567</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61434</v>
+        <v>60641</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3036263365190671</v>
+        <v>0.303626336519067</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2444924644355581</v>
+        <v>0.2350207868773971</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3743731281956673</v>
+        <v>0.3695369178691903</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>115</v>
@@ -7321,19 +7321,19 @@
         <v>116044</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>98937</v>
+        <v>96228</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>136216</v>
+        <v>136662</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2926838078141145</v>
+        <v>0.2926838078141144</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2495368641614767</v>
+        <v>0.2427028931590791</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3435601331102845</v>
+        <v>0.344684719116461</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>81839</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>66128</v>
+        <v>66772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>98464</v>
+        <v>99796</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3521703930915153</v>
+        <v>0.3521703930915152</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2845640475452554</v>
+        <v>0.2873341346354387</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4237124966283312</v>
+        <v>0.4294442898481953</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>63</v>
@@ -7371,19 +7371,19 @@
         <v>49689</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39179</v>
+        <v>39502</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>60980</v>
+        <v>60960</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3027962486864578</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.238754136769707</v>
+        <v>0.2407225636557506</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3716056434492832</v>
+        <v>0.3714852080239539</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>134</v>
@@ -7392,19 +7392,19 @@
         <v>131527</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>113858</v>
+        <v>113125</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>152355</v>
+        <v>151485</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.331735139514262</v>
+        <v>0.3317351395142619</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2871708460163518</v>
+        <v>0.2853203387180318</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3842653406581477</v>
+        <v>0.3820710225027387</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>44956</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33100</v>
+        <v>31022</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>61382</v>
+        <v>61273</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1934578042470783</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1424381941735757</v>
+        <v>0.1334943794321216</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2641417508224285</v>
+        <v>0.2636707380170429</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>45</v>
@@ -7442,19 +7442,19 @@
         <v>37731</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>28027</v>
+        <v>28856</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>48296</v>
+        <v>48485</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2299258614192981</v>
+        <v>0.229925861419298</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1707926905401044</v>
+        <v>0.1758449466566769</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2943079981202928</v>
+        <v>0.2954645316375488</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>77</v>
@@ -7463,19 +7463,19 @@
         <v>82687</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>66208</v>
+        <v>66964</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>102887</v>
+        <v>99900</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.208551412546805</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1669881224053827</v>
+        <v>0.1688957337424307</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2594988932924619</v>
+        <v>0.2519645194914105</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>77165</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61470</v>
+        <v>60003</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>96680</v>
+        <v>96393</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.240424474289522</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1915236137533604</v>
+        <v>0.1869526091786927</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3012277271608104</v>
+        <v>0.3003321733003962</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>96</v>
@@ -7588,19 +7588,19 @@
         <v>76634</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64881</v>
+        <v>63869</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>89908</v>
+        <v>91139</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3111009388182144</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.263387197943879</v>
+        <v>0.2592776921274804</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3649868447991151</v>
+        <v>0.3699842358527178</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>162</v>
@@ -7609,19 +7609,19 @@
         <v>153800</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>133452</v>
+        <v>133962</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>175339</v>
+        <v>181318</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2711142612617671</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.235245986746636</v>
+        <v>0.2361450739860255</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3090828466809082</v>
+        <v>0.3196229359165924</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>101269</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>82896</v>
+        <v>83204</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>118845</v>
+        <v>119104</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3155242414787888</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2582797963309608</v>
+        <v>0.2592394388886385</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3702863421788102</v>
+        <v>0.3710950735603656</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>111</v>
@@ -7659,19 +7659,19 @@
         <v>75747</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>63589</v>
+        <v>64021</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>88284</v>
+        <v>88470</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3074999977388942</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2581421630877822</v>
+        <v>0.2598966493313252</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3583937492386991</v>
+        <v>0.3591471217961001</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>204</v>
@@ -7680,19 +7680,19 @@
         <v>177016</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>156097</v>
+        <v>155161</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>199728</v>
+        <v>199815</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.312039880275481</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2751641346393516</v>
+        <v>0.2735139642271157</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3520750114120279</v>
+        <v>0.3522287284440031</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>109556</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>92601</v>
+        <v>91510</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>129107</v>
+        <v>128153</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3413442252712948</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2885187928978584</v>
+        <v>0.2851188234649212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4022594427727755</v>
+        <v>0.3992886390597739</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -7730,19 +7730,19 @@
         <v>65699</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54171</v>
+        <v>54124</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78018</v>
+        <v>77790</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2667075574252173</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2199111026155639</v>
+        <v>0.2197195402760764</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3167187028305216</v>
+        <v>0.3157937388141797</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>201</v>
@@ -7751,19 +7751,19 @@
         <v>175255</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>154459</v>
+        <v>152500</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>198544</v>
+        <v>196865</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3089348022506451</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2722769991897065</v>
+        <v>0.2688232691250412</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3499888095453875</v>
+        <v>0.3470293828397739</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>32964</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21116</v>
+        <v>22262</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50077</v>
+        <v>49035</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1027070589603945</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06579287584300147</v>
+        <v>0.06936130317998652</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1560268053117967</v>
+        <v>0.1527792790998064</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -7801,19 +7801,19 @@
         <v>28252</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20057</v>
+        <v>19562</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38981</v>
+        <v>37597</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1146915060176741</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08142139495471747</v>
+        <v>0.07941274462991482</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.158243414744447</v>
+        <v>0.1526261861048683</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>58</v>
@@ -7822,19 +7822,19 @@
         <v>61217</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>46278</v>
+        <v>46949</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>80685</v>
+        <v>79784</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1079110562121069</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08157710265593629</v>
+        <v>0.0827613797298115</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1422302907372175</v>
+        <v>0.140642079860797</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>138621</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118957</v>
+        <v>118162</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>159235</v>
+        <v>159161</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4354653096282308</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3736925303176935</v>
+        <v>0.3711944949680556</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5002213781486489</v>
+        <v>0.4999881753537351</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>115</v>
@@ -7947,19 +7947,19 @@
         <v>87072</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>73950</v>
+        <v>74807</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>99836</v>
+        <v>100014</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4031854319087654</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3424235691870095</v>
+        <v>0.3463912885393307</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4622856109482347</v>
+        <v>0.463110701117377</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>229</v>
@@ -7968,19 +7968,19 @@
         <v>225694</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>201993</v>
+        <v>201451</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>249026</v>
+        <v>248895</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4224176978370903</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3780595622119015</v>
+        <v>0.377044615943802</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4660876596912393</v>
+        <v>0.465843258324259</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>79469</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>65226</v>
+        <v>63858</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>98989</v>
+        <v>98106</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2496454289311162</v>
+        <v>0.2496454289311163</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2049013027963489</v>
+        <v>0.2006034638886729</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3109637068052516</v>
+        <v>0.30818910829171</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>105</v>
@@ -8018,19 +8018,19 @@
         <v>64033</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>53822</v>
+        <v>52983</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>75182</v>
+        <v>75935</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2965027692292995</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2492220622244237</v>
+        <v>0.2453376972134621</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3481292073063658</v>
+        <v>0.3516159831692418</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>183</v>
@@ -8039,19 +8039,19 @@
         <v>143502</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>123102</v>
+        <v>124892</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>164053</v>
+        <v>163464</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2685852895801976</v>
+        <v>0.2685852895801975</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2304036762870318</v>
+        <v>0.2337541311211114</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3070491847527749</v>
+        <v>0.3059462470343141</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>56597</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>42808</v>
+        <v>41782</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>74041</v>
+        <v>75562</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1777925195981686</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1344767701747412</v>
+        <v>0.1312543217809394</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.232591556879307</v>
+        <v>0.2373721171109205</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>48</v>
@@ -8089,19 +8089,19 @@
         <v>33024</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23737</v>
+        <v>25425</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>42753</v>
+        <v>44370</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.152916209945577</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1099134548533703</v>
+        <v>0.1177314462934782</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1979657055186051</v>
+        <v>0.205452242708187</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>96</v>
@@ -8110,19 +8110,19 @@
         <v>89620</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>73564</v>
+        <v>72985</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>109474</v>
+        <v>107912</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1677374495646322</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1376852972339725</v>
+        <v>0.1366017256279683</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2048963289893268</v>
+        <v>0.2019720725456605</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>43642</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29858</v>
+        <v>29231</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>60947</v>
+        <v>60864</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1370967418424845</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09379707652398321</v>
+        <v>0.09182694671551986</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1914595856779041</v>
+        <v>0.1911997607361182</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -8160,19 +8160,19 @@
         <v>31832</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23112</v>
+        <v>22567</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42670</v>
+        <v>42955</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.147395588916358</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1070212303677489</v>
+        <v>0.1044947480448123</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1975830724008912</v>
+        <v>0.1989030816659063</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -8181,19 +8181,19 @@
         <v>75474</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>58661</v>
+        <v>58818</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>96660</v>
+        <v>95315</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.14125956301808</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.109792234009134</v>
+        <v>0.1100855760900186</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1809138597294343</v>
+        <v>0.1783959228008423</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>272241</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>239627</v>
+        <v>239921</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>301626</v>
+        <v>306326</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2815477813684505</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2478187671271619</v>
+        <v>0.2481227985378786</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3119374824097382</v>
+        <v>0.3167983837033563</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>259</v>
@@ -8306,19 +8306,19 @@
         <v>205124</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>182696</v>
+        <v>182859</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>227193</v>
+        <v>225780</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2909442791518244</v>
+        <v>0.2909442791518243</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2591335892965776</v>
+        <v>0.2593651546177754</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3222471665439061</v>
+        <v>0.3202426488752383</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>482</v>
@@ -8327,19 +8327,19 @@
         <v>477364</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>439947</v>
+        <v>441991</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>519705</v>
+        <v>520404</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2855100433641107</v>
+        <v>0.2855100433641106</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2631308860168178</v>
+        <v>0.2643535283148228</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3108339524022807</v>
+        <v>0.3112517162456682</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>250603</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>222939</v>
+        <v>220465</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>281358</v>
+        <v>284459</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2591703419108898</v>
+        <v>0.2591703419108897</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2305603587123529</v>
+        <v>0.2280024569731068</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2909768553230326</v>
+        <v>0.294184349426849</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>301</v>
@@ -8377,19 +8377,19 @@
         <v>209577</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>187860</v>
+        <v>188122</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>230594</v>
+        <v>232114</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2972605384645089</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2664576837182707</v>
+        <v>0.2668301065806619</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3270712105283874</v>
+        <v>0.3292274008932609</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>529</v>
@@ -8398,19 +8398,19 @@
         <v>460180</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>426864</v>
+        <v>425426</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>496777</v>
+        <v>498525</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2752320003809929</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.255305832984657</v>
+        <v>0.254445678481356</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.297120974518692</v>
+        <v>0.2981660611208695</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>287866</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>256876</v>
+        <v>256776</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>319996</v>
+        <v>318212</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2977073408586587</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2656582606099439</v>
+        <v>0.265554778941774</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3309360361479478</v>
+        <v>0.3290909107366498</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>234</v>
@@ -8448,19 +8448,19 @@
         <v>171314</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>153405</v>
+        <v>153044</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>191166</v>
+        <v>192672</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2429895227901298</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2175868592503783</v>
+        <v>0.2170753608944788</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2711476309775558</v>
+        <v>0.2732831772009802</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>488</v>
@@ -8469,19 +8469,19 @@
         <v>459180</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>415911</v>
+        <v>420959</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>496252</v>
+        <v>494676</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2746342410701398</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2487548327031786</v>
+        <v>0.2517741299486426</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2968066183117416</v>
+        <v>0.2958639263935147</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>156233</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>129164</v>
+        <v>130845</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>182718</v>
+        <v>188575</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1615745358620011</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1335800923234736</v>
+        <v>0.1353186727231532</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1889649868433676</v>
+        <v>0.1950221448308591</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>142</v>
@@ -8519,19 +8519,19 @@
         <v>119013</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>101085</v>
+        <v>102056</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>143328</v>
+        <v>137277</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1688056595935369</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1433778618220659</v>
+        <v>0.1447542380648431</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2032945029655463</v>
+        <v>0.1947119474270713</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>255</v>
@@ -8540,19 +8540,19 @@
         <v>275246</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>244008</v>
+        <v>243454</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>309745</v>
+        <v>309168</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1646237151847565</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1459404618888546</v>
+        <v>0.1456089485650295</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1852572667686111</v>
+        <v>0.1849126583934861</v>
       </c>
     </row>
     <row r="28">
